--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 1 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81FB6B5-4719-411E-855D-1494AE522A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E5A59-EF78-4A13-9A25-B954BD12810C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -495,6 +492,9 @@
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +758,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-4" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1323,16 +1323,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>410264</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>51095</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18457</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>405320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>108085</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1358,127 +1358,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Semester 2 2020"/>
-      <sheetName val="Semester 1 2020"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Project Beginning</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Week 4</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Week 5</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Week 6</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Break Week 1</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Break Week 2</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Week 7</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Week 8</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Week 9</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Week 10</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Week 11</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>100</v>
-          </cell>
-          <cell r="C10">
-            <v>90</v>
-          </cell>
-          <cell r="D10">
-            <v>80</v>
-          </cell>
-          <cell r="E10">
-            <v>70</v>
-          </cell>
-          <cell r="F10">
-            <v>60</v>
-          </cell>
-          <cell r="G10">
-            <v>50</v>
-          </cell>
-          <cell r="H10">
-            <v>40</v>
-          </cell>
-          <cell r="I10">
-            <v>30</v>
-          </cell>
-          <cell r="J10">
-            <v>20</v>
-          </cell>
-          <cell r="K10">
-            <v>10</v>
-          </cell>
-          <cell r="L10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>100</v>
-          </cell>
-          <cell r="C11">
-            <v>94</v>
-          </cell>
-          <cell r="D11">
-            <v>88</v>
-          </cell>
-          <cell r="E11">
-            <v>76</v>
-          </cell>
-          <cell r="F11">
-            <v>66</v>
-          </cell>
-          <cell r="G11">
-            <v>61</v>
-          </cell>
-          <cell r="H11">
-            <v>51</v>
-          </cell>
-          <cell r="I11">
-            <v>40</v>
-          </cell>
-          <cell r="J11">
-            <v>14</v>
-          </cell>
-          <cell r="K11">
-            <v>5</v>
-          </cell>
-          <cell r="L11">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,16 +1657,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF4A8D6-7B70-4B05-B2EF-CB4408646652}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="96.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1829,6 +1711,9 @@
       <c r="B2">
         <v>8</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1837,6 +1722,9 @@
       <c r="B3">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1845,6 +1733,9 @@
       <c r="B4">
         <v>8</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1853,6 +1744,9 @@
       <c r="B5">
         <v>8</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1861,6 +1755,9 @@
       <c r="B6">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1869,6 +1766,9 @@
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1877,6 +1777,9 @@
       <c r="B8">
         <v>21</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1885,6 +1788,9 @@
       <c r="B9">
         <v>5</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1893,6 +1799,9 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1901,6 +1810,9 @@
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1909,6 +1821,9 @@
       <c r="B12">
         <v>8</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1917,6 +1832,9 @@
       <c r="B13">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1925,6 +1843,9 @@
       <c r="B14">
         <v>8</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1933,6 +1854,9 @@
       <c r="B15">
         <v>8</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1941,133 +1865,184 @@
       <c r="B16">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2077,6 +2052,9 @@
       <c r="B33">
         <v>13</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -2085,6 +2063,9 @@
       <c r="B34">
         <v>13</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -2134,10 +2115,14 @@
       <c r="B37">
         <v>342</v>
       </c>
+      <c r="C37">
+        <f>B36-SUM(C2:C34)</f>
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 1 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E5A59-EF78-4A13-9A25-B954BD12810C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D62EE9-6F46-4359-BD3B-C0BBBA50293B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
@@ -495,6 +495,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,7 +1669,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1714,6 +1720,12 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1725,6 +1737,12 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1736,6 +1754,12 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1747,6 +1771,12 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1758,6 +1788,12 @@
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1769,6 +1805,12 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1780,6 +1822,12 @@
       <c r="C8">
         <v>3</v>
       </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1791,6 +1839,12 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1802,6 +1856,12 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1813,6 +1873,12 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1824,6 +1890,12 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1835,6 +1907,12 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1846,6 +1924,12 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1857,6 +1941,12 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1868,8 +1958,14 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1879,8 +1975,14 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1890,8 +1992,14 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1901,8 +2009,14 @@
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1912,8 +2026,14 @@
       <c r="C20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1923,8 +2043,14 @@
       <c r="C21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1934,8 +2060,14 @@
       <c r="C22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1945,8 +2077,14 @@
       <c r="C23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1956,8 +2094,14 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1967,8 +2111,14 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1978,8 +2128,14 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1989,8 +2145,14 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2000,8 +2162,14 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2011,8 +2179,14 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2022,8 +2196,14 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2033,8 +2213,14 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2043,6 +2229,12 @@
       </c>
       <c r="C32">
         <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2055,6 +2247,12 @@
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -2066,6 +2264,12 @@
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -2118,6 +2322,14 @@
       <c r="C37">
         <f>B36-SUM(C2:C34)</f>
         <v>300</v>
+      </c>
+      <c r="D37">
+        <f>C37-SUM(D2:D34)</f>
+        <v>278</v>
+      </c>
+      <c r="E37">
+        <f>D37-SUM(E2:E34)</f>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 1 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D62EE9-6F46-4359-BD3B-C0BBBA50293B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A34D0E-1C75-4C68-8F07-D656E69F4CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
@@ -501,6 +501,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,8 +1677,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1726,6 +1735,15 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1743,6 +1761,15 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1760,6 +1787,15 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1777,6 +1813,15 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1794,6 +1839,15 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1811,6 +1865,15 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1828,6 +1891,15 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1845,6 +1917,15 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1862,6 +1943,15 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1879,6 +1969,15 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1896,6 +1995,15 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1913,6 +2021,15 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1930,6 +2047,15 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1947,6 +2073,15 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1964,8 +2099,17 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1981,8 +2125,17 @@
       <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1998,8 +2151,17 @@
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2015,8 +2177,17 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2203,17 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2049,8 +2229,17 @@
       <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2066,8 +2255,17 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2083,8 +2281,17 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2100,8 +2307,17 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2117,8 +2333,17 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2134,8 +2359,17 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2151,8 +2385,17 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2168,8 +2411,17 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2185,8 +2437,17 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2202,8 +2463,17 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2219,8 +2489,17 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2235,6 +2514,15 @@
       </c>
       <c r="E32">
         <v>5</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2253,6 +2541,15 @@
       <c r="E33">
         <v>5</v>
       </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -2270,6 +2567,15 @@
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -2330,6 +2636,18 @@
       <c r="E37">
         <f>D37-SUM(E2:E34)</f>
         <v>252</v>
+      </c>
+      <c r="F37">
+        <f>E37-SUM(F2:F34)</f>
+        <v>223</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:J37" si="1">F37-SUM(G2:G34)</f>
+        <v>180</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 1 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 2 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A34D0E-1C75-4C68-8F07-D656E69F4CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89C2FFE-0ABD-4645-86BB-EE34303A6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Semester 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Semester 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>User Story</t>
   </si>
@@ -169,13 +170,64 @@
   </si>
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>1.1.9. As a user, I want to detect and access the ambient light sensor so that I can gather ambient light data</t>
+  </si>
+  <si>
+    <t>1.1.10. As a user, I want to detect and access the GPS so that I can gather latitude and longitude data</t>
+  </si>
+  <si>
+    <t>1.1.11. As a user, I want microphone data to be collected without lag in real time so that all my data can be collected in unison</t>
+  </si>
+  <si>
+    <t>1.2.8. As a user I want to collect illuminance from the ambient light sensor so that I have this data for my experiment</t>
+  </si>
+  <si>
+    <t>1.2.9. As a user I want to collect latitude and longitude from the GPS so that I have this data for my experiment</t>
+  </si>
+  <si>
+    <t>2.2.7. As a user I want to generate and update a graph for ambient light luminosity data in real-time, so that I can view my collected data</t>
+  </si>
+  <si>
+    <t>2.2.8. As a user I want to generate and update a graph for GPS latitude and longitude data in real-time so that I can view my collected data</t>
+  </si>
+  <si>
+    <t>3.1.8. As a user I want to store the collected ambient light luminosity, so that I can use it later</t>
+  </si>
+  <si>
+    <t>3.1.9. As a user I want to store the collected GPS latitude and longitude data, so that I can use it later</t>
+  </si>
+  <si>
+    <t>3.2.4. As a user, I want to delete data that I have exported, so that my device storage doesn't fill up with data once I have finished using it</t>
+  </si>
+  <si>
+    <t>4.1.1. As a developer, I want to obtain ethical clearance so that I can test the application with disabled individuals</t>
+  </si>
+  <si>
+    <t>4.1.2. As a developer, I want to test the application with disabled users so that I can optimize the usability of the application</t>
+  </si>
+  <si>
+    <t>4.1.3. As a product owner, I want an apk, so that I can test the android app myself</t>
+  </si>
+  <si>
+    <t>4.1.4. As a product owner, I want an ipa so that I can test the iOS app myself</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Ideal work remaining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +248,19 @@
       <color rgb="FF1A1A1A"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,10 +283,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,6 +306,472 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sensible Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal work remaining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Semester 2'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Semester 2'!$C$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7F0-4C7D-A920-8F630EB03D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual work remaining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Semester 2'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Semester 2'!$C$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F7F0-4C7D-A920-8F630EB03D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="221237856"/>
+        <c:axId val="221238688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221237856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221238688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221238688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221237856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -324,7 +856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
+              <c:f>'Semester 1'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -347,7 +879,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>'Semester 1'!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -382,7 +914,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$J$36</c:f>
+              <c:f>'Semester 1'!$B$36:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -428,7 +960,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$37</c:f>
+              <c:f>'Semester 1'!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -451,7 +983,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>'Semester 1'!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -486,7 +1018,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$J$37</c:f>
+              <c:f>'Semester 1'!$B$37:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -509,7 +1041,10 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,6 +1353,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1334,7 +1909,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95557</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBF2B69-DDAA-4DC8-A972-C8CAAB024B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1671,14 +2803,339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8D38B7-E15B-446D-AF9D-70DAFFF397FD}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C2:C15)</f>
+        <v>182</v>
+      </c>
+      <c r="D18">
+        <f>C18-SUM(D5:D15)</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>182</v>
+      </c>
+      <c r="D19">
+        <f>C19-18.2</f>
+        <v>163.80000000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:M19" si="0">D19-18.2</f>
+        <v>145.60000000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>127.40000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>109.20000000000002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>91.000000000000014</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>72.800000000000011</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>54.600000000000009</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>18.200000000000006</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF4A8D6-7B70-4B05-B2EF-CB4408646652}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J34"/>
+    <sheetView zoomScale="40" workbookViewId="0">
+      <selection sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1744,6 +3201,12 @@
       <c r="H2">
         <v>6</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1770,6 +3233,12 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1796,6 +3265,12 @@
       <c r="H4">
         <v>6</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1822,6 +3297,12 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1848,6 +3329,12 @@
       <c r="H6">
         <v>6</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1874,6 +3361,12 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1900,6 +3393,12 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1924,6 +3423,12 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
@@ -1952,6 +3457,12 @@
       <c r="H10">
         <v>8</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1978,6 +3489,12 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -2004,6 +3521,12 @@
       <c r="H12">
         <v>8</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -2030,6 +3553,12 @@
       <c r="H13">
         <v>8</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2056,6 +3585,12 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -2082,6 +3617,12 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -2108,8 +3649,14 @@
       <c r="H16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2134,8 +3681,14 @@
       <c r="H17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2160,8 +3713,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2186,8 +3745,14 @@
       <c r="H19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2212,8 +3777,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2238,8 +3809,14 @@
       <c r="H21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2264,8 +3841,14 @@
       <c r="H22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2290,8 +3873,14 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2316,8 +3905,14 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2342,8 +3937,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2368,8 +3969,14 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2394,8 +4001,14 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2420,8 +4033,14 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2446,8 +4065,14 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2472,8 +4097,14 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2498,8 +4129,14 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2522,6 +4159,12 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
     </row>
@@ -2550,6 +4193,12 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -2576,6 +4225,12 @@
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -2642,12 +4297,16 @@
         <v>223</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:J37" si="1">F37-SUM(G2:G34)</f>
+        <f t="shared" ref="G37:I37" si="1">F37-SUM(G2:G34)</f>
         <v>180</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 2 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 2 2021\Techlauncher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89C2FFE-0ABD-4645-86BB-EE34303A6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369E484-A206-4DA0-A90A-712F45E50C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
@@ -400,7 +400,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Semester 2'!$C$1:$M$1</c:f>
+              <c:f>'Semester 2'!$B$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -441,7 +441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Semester 2'!$C$19:$M$19</c:f>
+              <c:f>'Semester 2'!$B$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -508,7 +508,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Semester 2'!$C$1:$M$1</c:f>
+              <c:f>'Semester 2'!$B$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -549,7 +549,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Semester 2'!$C$18:$M$18</c:f>
+              <c:f>'Semester 2'!$B$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -558,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,7 +609,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2430,15 +2433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95557</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26230</xdr:rowOff>
+      <xdr:colOff>195163</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>311274</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149411</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>373528</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62253</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2804,313 +2807,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8D38B7-E15B-446D-AF9D-70DAFFF397FD}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
       <c r="C3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
       <c r="C4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
       <c r="C5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
       <c r="C6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
       <c r="C7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
       <c r="C8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
       <c r="C11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
       <c r="C12">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
       <c r="C13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B18">
+        <f>SUM(B2:B15)</f>
+        <v>182</v>
+      </c>
       <c r="C18">
-        <f>SUM(C2:C15)</f>
-        <v>182</v>
+        <f>B18-SUM(C5:C15)</f>
+        <v>166</v>
       </c>
       <c r="D18">
         <f>C18-SUM(D5:D15)</f>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B19">
+        <v>182</v>
+      </c>
       <c r="C19">
-        <v>182</v>
+        <f>B19-18.2</f>
+        <v>163.80000000000001</v>
       </c>
       <c r="D19">
-        <f>C19-18.2</f>
-        <v>163.80000000000001</v>
+        <f t="shared" ref="D19:L19" si="0">C19-18.2</f>
+        <v>145.60000000000002</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:M19" si="0">D19-18.2</f>
-        <v>145.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>127.40000000000002</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>127.40000000000002</v>
+        <v>109.20000000000002</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>109.20000000000002</v>
+        <v>91.000000000000014</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>91.000000000000014</v>
+        <v>72.800000000000011</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>72.800000000000011</v>
+        <v>54.600000000000009</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>54.600000000000009</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>36.400000000000006</v>
+        <v>18.200000000000006</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>18.200000000000006</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -3122,7 +3180,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 2 2021\Techlauncher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369E484-A206-4DA0-A90A-712F45E50C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46077A84-DC39-4BDF-B616-FFB6971BFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
@@ -561,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2813,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2878,6 +2881,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2892,6 +2898,9 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2906,6 +2915,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2920,6 +2932,9 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -2934,6 +2949,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -2948,6 +2966,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2962,6 +2983,9 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2976,6 +3000,9 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -2990,6 +3017,9 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -3004,6 +3034,9 @@
       <c r="D11">
         <v>18</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3018,6 +3051,9 @@
       <c r="D12">
         <v>4</v>
       </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -3032,6 +3068,9 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -3046,6 +3085,9 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -3060,6 +3102,9 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -3082,6 +3127,10 @@
       <c r="D18">
         <f>C18-SUM(D5:D15)</f>
         <v>144</v>
+      </c>
+      <c r="E18">
+        <f>D18-SUM(E5:E15)</f>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">

--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 2 2021\Techlauncher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46077A84-DC39-4BDF-B616-FFB6971BFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDAAA1-695D-4C34-B3ED-A4F05ECC38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
@@ -172,24 +172,15 @@
     <t>Start</t>
   </si>
   <si>
-    <t>1.1.9. As a user, I want to detect and access the ambient light sensor so that I can gather ambient light data</t>
-  </si>
-  <si>
     <t>1.1.10. As a user, I want to detect and access the GPS so that I can gather latitude and longitude data</t>
   </si>
   <si>
     <t>1.1.11. As a user, I want microphone data to be collected without lag in real time so that all my data can be collected in unison</t>
   </si>
   <si>
-    <t>1.2.8. As a user I want to collect illuminance from the ambient light sensor so that I have this data for my experiment</t>
-  </si>
-  <si>
     <t>1.2.9. As a user I want to collect latitude and longitude from the GPS so that I have this data for my experiment</t>
   </si>
   <si>
-    <t>2.2.7. As a user I want to generate and update a graph for ambient light luminosity data in real-time, so that I can view my collected data</t>
-  </si>
-  <si>
     <t>2.2.8. As a user I want to generate and update a graph for GPS latitude and longitude data in real-time so that I can view my collected data</t>
   </si>
   <si>
@@ -221,6 +212,15 @@
   </si>
   <si>
     <t>Ideal work remaining</t>
+  </si>
+  <si>
+    <t>1.1.9. As a user, I want to detect and access the magnetometer sensor so that I can gather magnetometer data</t>
+  </si>
+  <si>
+    <t>1.2.8. As a user I want to collect magnetic field from the magnometer sensor so that I have this data for my experiment</t>
+  </si>
+  <si>
+    <t>2.2.7. As a user I want to generate and update a graph for magnometer magnetic field data in real-time, so that I can view my collected data</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,10 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124</c:v>
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,7 +775,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2813,12 +2816,12 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -2862,15 +2865,15 @@
         <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -2883,11 +2886,14 @@
       </c>
       <c r="E2">
         <v>0</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -2900,11 +2906,14 @@
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2918,10 +2927,13 @@
       <c r="E4">
         <v>8</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2934,11 +2946,14 @@
       </c>
       <c r="E5">
         <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -2950,12 +2965,15 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2967,12 +2985,15 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -2984,12 +3005,15 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3001,12 +3025,15 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3018,12 +3045,15 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -3037,10 +3067,13 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>34</v>
@@ -3054,10 +3087,13 @@
       <c r="E12">
         <v>20</v>
       </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>34</v>
@@ -3071,10 +3107,13 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -3086,12 +3125,15 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -3103,6 +3145,9 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
@@ -3121,21 +3166,25 @@
         <v>182</v>
       </c>
       <c r="C18">
-        <f>B18-SUM(C5:C15)</f>
+        <f>B18-SUM(C2:C15)</f>
         <v>166</v>
       </c>
       <c r="D18">
-        <f>C18-SUM(D5:D15)</f>
+        <f>C18-SUM(D2:D15)</f>
         <v>144</v>
       </c>
       <c r="E18">
-        <f>D18-SUM(E5:E15)</f>
-        <v>124</v>
+        <f>D18-SUM(E2:E15)</f>
+        <v>116</v>
+      </c>
+      <c r="F18">
+        <f>E18-SUM(F2:F15)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>182</v>

--- a/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
+++ b/Background Documentation/Burndown Chart/Burndown_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy Carden\Documents\UNI\Semester 2 2021\Techlauncher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\OneDrive\Documents\Maddy UNI\Techlauncher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDAAA1-695D-4C34-B3ED-A4F05ECC38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBC7B7-F36D-4C67-A05B-975130D1707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
+    <workbookView xWindow="3072" yWindow="2916" windowWidth="30960" windowHeight="12012" xr2:uid="{1C7A58D7-4E6D-4B99-A39A-FCECED6FF1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Semester 2" sheetId="2" r:id="rId1"/>
@@ -172,33 +172,12 @@
     <t>Start</t>
   </si>
   <si>
-    <t>1.1.10. As a user, I want to detect and access the GPS so that I can gather latitude and longitude data</t>
-  </si>
-  <si>
-    <t>1.1.11. As a user, I want microphone data to be collected without lag in real time so that all my data can be collected in unison</t>
-  </si>
-  <si>
-    <t>1.2.9. As a user I want to collect latitude and longitude from the GPS so that I have this data for my experiment</t>
-  </si>
-  <si>
-    <t>2.2.8. As a user I want to generate and update a graph for GPS latitude and longitude data in real-time so that I can view my collected data</t>
-  </si>
-  <si>
-    <t>3.1.8. As a user I want to store the collected ambient light luminosity, so that I can use it later</t>
-  </si>
-  <si>
-    <t>3.1.9. As a user I want to store the collected GPS latitude and longitude data, so that I can use it later</t>
-  </si>
-  <si>
     <t>3.2.4. As a user, I want to delete data that I have exported, so that my device storage doesn't fill up with data once I have finished using it</t>
   </si>
   <si>
     <t>4.1.1. As a developer, I want to obtain ethical clearance so that I can test the application with disabled individuals</t>
   </si>
   <si>
-    <t>4.1.2. As a developer, I want to test the application with disabled users so that I can optimize the usability of the application</t>
-  </si>
-  <si>
     <t>4.1.3. As a product owner, I want an apk, so that I can test the android app myself</t>
   </si>
   <si>
@@ -214,13 +193,34 @@
     <t>Ideal work remaining</t>
   </si>
   <si>
-    <t>1.1.9. As a user, I want to detect and access the magnetometer sensor so that I can gather magnetometer data</t>
-  </si>
-  <si>
-    <t>1.2.8. As a user I want to collect magnetic field from the magnometer sensor so that I have this data for my experiment</t>
-  </si>
-  <si>
-    <t>2.2.7. As a user I want to generate and update a graph for magnometer magnetic field data in real-time, so that I can view my collected data</t>
+    <t>4.1.2. As a developer, I want to test the application so that I can optimize the usability of the application</t>
+  </si>
+  <si>
+    <t>1.1.8. As a user, I want to detect and access the magnometer so that I can gather magnetic field data</t>
+  </si>
+  <si>
+    <t>1.1.9. As a user, I want to detect and access the GPS so that I can gather latitude and longitude data</t>
+  </si>
+  <si>
+    <t>1.1.10. As a user, I want microphone data to be collected without lag in real time so that all my data can be collected in unison</t>
+  </si>
+  <si>
+    <t>1.2.7. As a user I want to collect direction from the magnetometer so that I have this data for my experiment</t>
+  </si>
+  <si>
+    <t>1.2.8. As a user I want to collect latitude and longitude from the GPS so that I have this data for my experiment</t>
+  </si>
+  <si>
+    <t>2.2.6. As a user I want to generate and update a graph for magnetometer direction in real-time so that I can view my collected data</t>
+  </si>
+  <si>
+    <t>2.2.7. As a user I want to generate and update a graph for GPS latitude and longitude data in real-time so that I can view my collected data</t>
+  </si>
+  <si>
+    <t>3.1.7. As a user I want to store the collected magnetometer direction so that I can use it later</t>
+  </si>
+  <si>
+    <t>3.1.8. As a user I want to store the collected GPS latitude and longitude data, so that I can use it later</t>
   </si>
 </sst>
 </file>
@@ -567,6 +567,24 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,27 +2831,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8D38B7-E15B-446D-AF9D-70DAFFF397FD}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
-    <col min="6" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" customWidth="1"/>
-    <col min="10" max="11" width="9.6328125" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,15 +2883,15 @@
         <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -2890,10 +2908,32 @@
       <c r="F2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>B2-SUM(C2:L2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -2910,10 +2950,32 @@
       <c r="F3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M15" si="0">B3-SUM(C3:L3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2930,111 +2992,243 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="B10">
         <v>8</v>
       </c>
@@ -3050,10 +3244,32 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -3070,10 +3286,32 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>34</v>
@@ -3090,10 +3328,32 @@
       <c r="F12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>34</v>
@@ -3110,10 +3370,32 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -3130,10 +3412,32 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -3150,14 +3454,36 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3166,25 +3492,49 @@
         <v>182</v>
       </c>
       <c r="C18">
-        <f>B18-SUM(C2:C15)</f>
+        <f t="shared" ref="C18:L18" si="1">B18-SUM(C2:C15)</f>
         <v>166</v>
       </c>
       <c r="D18">
-        <f>C18-SUM(D2:D15)</f>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="E18">
-        <f>D18-SUM(E2:E15)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="F18">
-        <f>E18-SUM(F2:F15)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>182</v>
@@ -3194,85 +3544,85 @@
         <v>163.80000000000001</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:L19" si="0">C19-18.2</f>
+        <f t="shared" ref="D19:L19" si="2">C19-18.2</f>
         <v>145.60000000000002</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>127.40000000000002</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>109.20000000000002</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>91.000000000000014</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72.800000000000011</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.600000000000009</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36.400000000000006</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.200000000000006</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
   </sheetData>
@@ -3294,13 +3644,13 @@
       <selection sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="96.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3396,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3428,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3460,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3492,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3556,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3684,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3780,7 +4130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3812,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3844,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3908,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3940,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3972,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -4004,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -4036,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -4068,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -4132,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -4164,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -4196,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -4228,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -4260,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -4292,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -4324,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -4356,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -4388,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4429,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
